--- a/processed_CI_test_data/pivots_long_CI_test.xlsx
+++ b/processed_CI_test_data/pivots_long_CI_test.xlsx
@@ -491,31 +491,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C4" t="n">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D4" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="E4" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F4" t="n">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G4" t="n">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="H4" t="n">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="I4" t="n">
-        <v>429</v>
+        <v>482</v>
       </c>
       <c r="J4" t="n">
-        <v>23.50684931506849</v>
+        <v>26.41095890410959</v>
       </c>
     </row>
     <row r="5">
@@ -559,31 +559,31 @@
         </is>
       </c>
       <c r="B6" t="n">
+        <v>13</v>
+      </c>
+      <c r="C6" t="n">
+        <v>26</v>
+      </c>
+      <c r="D6" t="n">
         <v>15</v>
       </c>
-      <c r="C6" t="n">
-        <v>30</v>
-      </c>
-      <c r="D6" t="n">
-        <v>35</v>
-      </c>
       <c r="E6" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F6" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G6" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="H6" t="n">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="I6" t="n">
-        <v>186</v>
+        <v>133</v>
       </c>
       <c r="J6" t="n">
-        <v>10.19178082191781</v>
+        <v>7.287671232876712</v>
       </c>
     </row>
     <row r="7">
@@ -593,31 +593,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="C7" t="n">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D7" t="n">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="E7" t="n">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="F7" t="n">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="G7" t="n">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="H7" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I7" t="n">
-        <v>503</v>
+        <v>562</v>
       </c>
       <c r="J7" t="n">
-        <v>27.56164383561644</v>
+        <v>30.7945205479452</v>
       </c>
     </row>
     <row r="8">
@@ -661,31 +661,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C9" t="n">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D9" t="n">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="E9" t="n">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F9" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="G9" t="n">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="H9" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I9" t="n">
-        <v>230</v>
+        <v>171</v>
       </c>
       <c r="J9" t="n">
-        <v>12.6027397260274</v>
+        <v>9.36986301369863</v>
       </c>
     </row>
     <row r="10">
@@ -739,28 +739,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C13" t="n">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="D13" t="n">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E13" t="n">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F13" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G13" t="n">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="H13" t="n">
-        <v>364</v>
+        <v>392</v>
       </c>
       <c r="I13" t="n">
-        <v>23.25878594249201</v>
+        <v>25.04792332268371</v>
       </c>
     </row>
     <row r="14">
@@ -801,28 +801,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C15" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D15" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="E15" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F15" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G15" t="n">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="H15" t="n">
-        <v>162</v>
+        <v>134</v>
       </c>
       <c r="I15" t="n">
-        <v>10.35143769968051</v>
+        <v>8.562300319488818</v>
       </c>
     </row>
     <row r="16">
@@ -832,28 +832,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="C16" t="n">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D16" t="n">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="E16" t="n">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="F16" t="n">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="G16" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H16" t="n">
-        <v>446</v>
+        <v>491</v>
       </c>
       <c r="I16" t="n">
-        <v>28.49840255591054</v>
+        <v>31.37380191693291</v>
       </c>
     </row>
     <row r="17">
@@ -894,28 +894,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C18" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D18" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="E18" t="n">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="F18" t="n">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="G18" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H18" t="n">
-        <v>178</v>
+        <v>133</v>
       </c>
       <c r="I18" t="n">
-        <v>11.37380191693291</v>
+        <v>8.498402555910543</v>
       </c>
     </row>
     <row r="19">
@@ -969,28 +969,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C22" t="n">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="D22" t="n">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="E22" t="n">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F22" t="n">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="G22" t="n">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="H22" t="n">
-        <v>340</v>
+        <v>401</v>
       </c>
       <c r="I22" t="n">
-        <v>21.72523961661342</v>
+        <v>25.62300319488818</v>
       </c>
     </row>
     <row r="23">
@@ -1006,7 +1006,7 @@
         <v>34</v>
       </c>
       <c r="D23" t="n">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="E23" t="n">
         <v>62</v>
@@ -1018,10 +1018,10 @@
         <v>107</v>
       </c>
       <c r="H23" t="n">
-        <v>288</v>
+        <v>263</v>
       </c>
       <c r="I23" t="n">
-        <v>18.40255591054313</v>
+        <v>16.80511182108626</v>
       </c>
     </row>
     <row r="24">
@@ -1031,28 +1031,28 @@
         </is>
       </c>
       <c r="B24" t="n">
+        <v>9</v>
+      </c>
+      <c r="C24" t="n">
+        <v>8</v>
+      </c>
+      <c r="D24" t="n">
+        <v>32</v>
+      </c>
+      <c r="E24" t="n">
         <v>10</v>
       </c>
-      <c r="C24" t="n">
-        <v>15</v>
-      </c>
-      <c r="D24" t="n">
-        <v>46</v>
-      </c>
-      <c r="E24" t="n">
-        <v>12</v>
-      </c>
       <c r="F24" t="n">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="G24" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H24" t="n">
-        <v>137</v>
+        <v>101</v>
       </c>
       <c r="I24" t="n">
-        <v>8.753993610223642</v>
+        <v>6.453674121405751</v>
       </c>
     </row>
     <row r="25">
@@ -1062,28 +1062,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C25" t="n">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="D25" t="n">
-        <v>54</v>
+        <v>102</v>
       </c>
       <c r="E25" t="n">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="F25" t="n">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="G25" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H25" t="n">
-        <v>398</v>
+        <v>486</v>
       </c>
       <c r="I25" t="n">
-        <v>25.43130990415336</v>
+        <v>31.05431309904154</v>
       </c>
     </row>
     <row r="26">
@@ -1099,7 +1099,7 @@
         <v>38</v>
       </c>
       <c r="D26" t="n">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="E26" t="n">
         <v>41</v>
@@ -1111,10 +1111,10 @@
         <v>26</v>
       </c>
       <c r="H26" t="n">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="I26" t="n">
-        <v>12.52396166134185</v>
+        <v>11.30990415335463</v>
       </c>
     </row>
     <row r="27">
@@ -1124,28 +1124,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C27" t="n">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="D27" t="n">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="E27" t="n">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="F27" t="n">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="G27" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H27" t="n">
-        <v>206</v>
+        <v>137</v>
       </c>
       <c r="I27" t="n">
-        <v>13.1629392971246</v>
+        <v>8.753993610223642</v>
       </c>
     </row>
     <row r="28">
@@ -1202,31 +1202,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C31" t="n">
         <v>68</v>
       </c>
       <c r="D31" t="n">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="E31" t="n">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="F31" t="n">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="G31" t="n">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H31" t="n">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="I31" t="n">
-        <v>439</v>
+        <v>489</v>
       </c>
       <c r="J31" t="n">
-        <v>24.3078626799557</v>
+        <v>27.07641196013289</v>
       </c>
     </row>
     <row r="32">
@@ -1270,31 +1270,31 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C33" t="n">
         <v>5</v>
       </c>
       <c r="D33" t="n">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="E33" t="n">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="F33" t="n">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="G33" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H33" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I33" t="n">
-        <v>164</v>
+        <v>114</v>
       </c>
       <c r="J33" t="n">
-        <v>9.080841638981173</v>
+        <v>6.312292358803987</v>
       </c>
     </row>
     <row r="34">
@@ -1304,31 +1304,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="C34" t="n">
         <v>99</v>
       </c>
       <c r="D34" t="n">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="E34" t="n">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="F34" t="n">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G34" t="n">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="H34" t="n">
         <v>57</v>
       </c>
       <c r="I34" t="n">
-        <v>484</v>
+        <v>533</v>
       </c>
       <c r="J34" t="n">
-        <v>26.79955703211517</v>
+        <v>29.51273532668882</v>
       </c>
     </row>
     <row r="35">
@@ -1372,31 +1372,31 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="C36" t="n">
         <v>7</v>
       </c>
       <c r="D36" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E36" t="n">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="F36" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G36" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H36" t="n">
         <v>10</v>
       </c>
       <c r="I36" t="n">
-        <v>157</v>
+        <v>108</v>
       </c>
       <c r="J36" t="n">
-        <v>8.693244739756366</v>
+        <v>5.980066445182724</v>
       </c>
     </row>
   </sheetData>

--- a/processed_CI_test_data/pivots_long_CI_test.xlsx
+++ b/processed_CI_test_data/pivots_long_CI_test.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J36"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,7 +434,8 @@
     <col width="6" customWidth="1" min="7" max="7"/>
     <col width="28" customWidth="1" min="8" max="8"/>
     <col width="28" customWidth="1" min="9" max="9"/>
-    <col width="27" customWidth="1" min="10" max="10"/>
+    <col width="28" customWidth="1" min="10" max="10"/>
+    <col width="27" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -491,31 +492,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C4" t="n">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D4" t="n">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="E4" t="n">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F4" t="n">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="G4" t="n">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="H4" t="n">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="I4" t="n">
-        <v>482</v>
+        <v>428</v>
       </c>
       <c r="J4" t="n">
-        <v>26.41095890410959</v>
+        <v>23.45205479452055</v>
       </c>
     </row>
     <row r="5">
@@ -525,31 +526,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C5" t="n">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D5" t="n">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E5" t="n">
         <v>17</v>
       </c>
       <c r="F5" t="n">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G5" t="n">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="H5" t="n">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I5" t="n">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="J5" t="n">
-        <v>15.72602739726027</v>
+        <v>16.38356164383562</v>
       </c>
     </row>
     <row r="6">
@@ -559,31 +560,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="E6" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F6" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G6" t="n">
         <v>9</v>
       </c>
       <c r="H6" t="n">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="I6" t="n">
-        <v>133</v>
+        <v>175</v>
       </c>
       <c r="J6" t="n">
-        <v>7.287671232876712</v>
+        <v>9.58904109589041</v>
       </c>
     </row>
     <row r="7">
@@ -593,31 +594,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="C7" t="n">
         <v>76</v>
       </c>
       <c r="D7" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="E7" t="n">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F7" t="n">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="G7" t="n">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="H7" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="I7" t="n">
-        <v>562</v>
+        <v>509</v>
       </c>
       <c r="J7" t="n">
-        <v>30.7945205479452</v>
+        <v>27.89041095890411</v>
       </c>
     </row>
     <row r="8">
@@ -630,28 +631,28 @@
         <v>38</v>
       </c>
       <c r="C8" t="n">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="D8" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
       </c>
       <c r="F8" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G8" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="H8" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I8" t="n">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="J8" t="n">
-        <v>10.41095890410959</v>
+        <v>11.34246575342466</v>
       </c>
     </row>
     <row r="9">
@@ -661,31 +662,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C9" t="n">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="D9" t="n">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="E9" t="n">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F9" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="G9" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H9" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="I9" t="n">
-        <v>171</v>
+        <v>207</v>
       </c>
       <c r="J9" t="n">
-        <v>9.36986301369863</v>
+        <v>11.34246575342466</v>
       </c>
     </row>
     <row r="10">
@@ -742,25 +743,25 @@
         <v>45</v>
       </c>
       <c r="C13" t="n">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D13" t="n">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="E13" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F13" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G13" t="n">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="H13" t="n">
-        <v>392</v>
+        <v>367</v>
       </c>
       <c r="I13" t="n">
-        <v>25.04792332268371</v>
+        <v>23.45047923322684</v>
       </c>
     </row>
     <row r="14">
@@ -770,7 +771,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C14" t="n">
         <v>48</v>
@@ -779,19 +780,19 @@
         <v>53</v>
       </c>
       <c r="E14" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F14" t="n">
         <v>19</v>
       </c>
       <c r="G14" t="n">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H14" t="n">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="I14" t="n">
-        <v>17.18849840255591</v>
+        <v>16.86900958466454</v>
       </c>
     </row>
     <row r="15">
@@ -801,28 +802,28 @@
         </is>
       </c>
       <c r="B15" t="n">
+        <v>34</v>
+      </c>
+      <c r="C15" t="n">
         <v>32</v>
       </c>
-      <c r="C15" t="n">
-        <v>25</v>
-      </c>
       <c r="D15" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="E15" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F15" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G15" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="H15" t="n">
-        <v>134</v>
+        <v>164</v>
       </c>
       <c r="I15" t="n">
-        <v>8.562300319488818</v>
+        <v>10.47923322683706</v>
       </c>
     </row>
     <row r="16">
@@ -832,28 +833,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C16" t="n">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D16" t="n">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="E16" t="n">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F16" t="n">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="G16" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H16" t="n">
-        <v>491</v>
+        <v>450</v>
       </c>
       <c r="I16" t="n">
-        <v>31.37380191693291</v>
+        <v>28.75399361022365</v>
       </c>
     </row>
     <row r="17">
@@ -863,7 +864,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C17" t="n">
         <v>28</v>
@@ -878,13 +879,13 @@
         <v>24</v>
       </c>
       <c r="G17" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H17" t="n">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="I17" t="n">
-        <v>9.329073482428115</v>
+        <v>8.881789137380192</v>
       </c>
     </row>
     <row r="18">
@@ -894,28 +895,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C18" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D18" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="E18" t="n">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="F18" t="n">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="G18" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H18" t="n">
-        <v>133</v>
+        <v>181</v>
       </c>
       <c r="I18" t="n">
-        <v>8.498402555910543</v>
+        <v>11.56549520766773</v>
       </c>
     </row>
     <row r="19">
@@ -969,28 +970,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C22" t="n">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D22" t="n">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="E22" t="n">
         <v>66</v>
       </c>
       <c r="F22" t="n">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="G22" t="n">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="H22" t="n">
-        <v>401</v>
+        <v>355</v>
       </c>
       <c r="I22" t="n">
-        <v>25.62300319488818</v>
+        <v>22.68370607028754</v>
       </c>
     </row>
     <row r="23">
@@ -1003,25 +1004,25 @@
         <v>22</v>
       </c>
       <c r="C23" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D23" t="n">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="E23" t="n">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F23" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G23" t="n">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="H23" t="n">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="I23" t="n">
-        <v>16.80511182108626</v>
+        <v>17.25239616613418</v>
       </c>
     </row>
     <row r="24">
@@ -1031,28 +1032,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C24" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D24" t="n">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="E24" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F24" t="n">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="G24" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H24" t="n">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="I24" t="n">
-        <v>6.453674121405751</v>
+        <v>8.945686900958465</v>
       </c>
     </row>
     <row r="25">
@@ -1062,28 +1063,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C25" t="n">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="D25" t="n">
-        <v>102</v>
+        <v>54</v>
       </c>
       <c r="E25" t="n">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F25" t="n">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="G25" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H25" t="n">
-        <v>486</v>
+        <v>402</v>
       </c>
       <c r="I25" t="n">
-        <v>31.05431309904154</v>
+        <v>25.68690095846645</v>
       </c>
     </row>
     <row r="26">
@@ -1096,25 +1097,25 @@
         <v>43</v>
       </c>
       <c r="C26" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D26" t="n">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="E26" t="n">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F26" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G26" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H26" t="n">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="I26" t="n">
-        <v>11.30990415335463</v>
+        <v>12.07667731629393</v>
       </c>
     </row>
     <row r="27">
@@ -1124,28 +1125,28 @@
         </is>
       </c>
       <c r="B27" t="n">
+        <v>32</v>
+      </c>
+      <c r="C27" t="n">
         <v>28</v>
       </c>
-      <c r="C27" t="n">
-        <v>15</v>
-      </c>
       <c r="D27" t="n">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="E27" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="F27" t="n">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="G27" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H27" t="n">
-        <v>137</v>
+        <v>209</v>
       </c>
       <c r="I27" t="n">
-        <v>8.753993610223642</v>
+        <v>13.35463258785942</v>
       </c>
     </row>
     <row r="28">
@@ -1157,32 +1158,35 @@
     </row>
     <row r="29">
       <c r="B29" t="n">
+        <v>2015</v>
+      </c>
+      <c r="C29" t="n">
         <v>2016</v>
       </c>
-      <c r="C29" t="n">
+      <c r="D29" t="n">
         <v>2017</v>
       </c>
-      <c r="D29" t="n">
+      <c r="E29" t="n">
         <v>2018</v>
       </c>
-      <c r="E29" t="n">
+      <c r="F29" t="n">
         <v>2019</v>
       </c>
-      <c r="F29" t="n">
+      <c r="G29" t="n">
         <v>2020</v>
       </c>
-      <c r="G29" t="n">
+      <c r="H29" t="n">
         <v>2021</v>
       </c>
-      <c r="H29" t="n">
+      <c r="I29" t="n">
         <v>2022</v>
       </c>
-      <c r="I29" t="inlineStr">
+      <c r="J29" t="inlineStr">
         <is>
           <t>total_count_of_occurrences</t>
         </is>
       </c>
-      <c r="J29" t="inlineStr">
+      <c r="K29" t="inlineStr">
         <is>
           <t>percentage_of_occurrences</t>
         </is>
@@ -1202,31 +1206,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C31" t="n">
+        <v>54</v>
+      </c>
+      <c r="D31" t="n">
+        <v>70</v>
+      </c>
+      <c r="E31" t="n">
         <v>68</v>
       </c>
-      <c r="D31" t="n">
-        <v>63</v>
-      </c>
-      <c r="E31" t="n">
-        <v>73</v>
-      </c>
       <c r="F31" t="n">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="G31" t="n">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="H31" t="n">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="I31" t="n">
-        <v>489</v>
+        <v>85</v>
       </c>
       <c r="J31" t="n">
-        <v>27.07641196013289</v>
+        <v>515</v>
+      </c>
+      <c r="K31" t="n">
+        <v>24.9515503875969</v>
       </c>
     </row>
     <row r="32">
@@ -1236,31 +1243,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C32" t="n">
+        <v>41</v>
+      </c>
+      <c r="D32" t="n">
         <v>20</v>
       </c>
-      <c r="D32" t="n">
+      <c r="E32" t="n">
         <v>26</v>
       </c>
-      <c r="E32" t="n">
-        <v>52</v>
-      </c>
       <c r="F32" t="n">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="G32" t="n">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="H32" t="n">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="I32" t="n">
-        <v>292</v>
+        <v>54</v>
       </c>
       <c r="J32" t="n">
-        <v>16.16832779623477</v>
+        <v>333</v>
+      </c>
+      <c r="K32" t="n">
+        <v>16.13372093023256</v>
       </c>
     </row>
     <row r="33">
@@ -1270,31 +1280,34 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="n">
         <v>5</v>
       </c>
-      <c r="D33" t="n">
+      <c r="E33" t="n">
+        <v>27</v>
+      </c>
+      <c r="F33" t="n">
         <v>31</v>
       </c>
-      <c r="E33" t="n">
+      <c r="G33" t="n">
+        <v>35</v>
+      </c>
+      <c r="H33" t="n">
+        <v>13</v>
+      </c>
+      <c r="I33" t="n">
         <v>9</v>
       </c>
-      <c r="F33" t="n">
-        <v>27</v>
-      </c>
-      <c r="G33" t="n">
-        <v>10</v>
-      </c>
-      <c r="H33" t="n">
-        <v>8</v>
-      </c>
-      <c r="I33" t="n">
-        <v>114</v>
-      </c>
       <c r="J33" t="n">
-        <v>6.312292358803987</v>
+        <v>187</v>
+      </c>
+      <c r="K33" t="n">
+        <v>9.060077519379844</v>
       </c>
     </row>
     <row r="34">
@@ -1304,31 +1317,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="C34" t="n">
-        <v>99</v>
+        <v>62</v>
       </c>
       <c r="D34" t="n">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="E34" t="n">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F34" t="n">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="G34" t="n">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="H34" t="n">
+        <v>90</v>
+      </c>
+      <c r="I34" t="n">
         <v>57</v>
       </c>
-      <c r="I34" t="n">
-        <v>533</v>
-      </c>
       <c r="J34" t="n">
-        <v>29.51273532668882</v>
+        <v>559</v>
+      </c>
+      <c r="K34" t="n">
+        <v>27.08333333333333</v>
       </c>
     </row>
     <row r="35">
@@ -1338,31 +1354,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C35" t="n">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="D35" t="n">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="E35" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F35" t="n">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="G35" t="n">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="H35" t="n">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="I35" t="n">
-        <v>270</v>
+        <v>41</v>
       </c>
       <c r="J35" t="n">
-        <v>14.95016611295681</v>
+        <v>296</v>
+      </c>
+      <c r="K35" t="n">
+        <v>14.34108527131783</v>
       </c>
     </row>
     <row r="36">
@@ -1372,31 +1391,34 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C36" t="n">
+        <v>32</v>
+      </c>
+      <c r="D36" t="n">
         <v>7</v>
       </c>
-      <c r="D36" t="n">
-        <v>39</v>
-      </c>
       <c r="E36" t="n">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="F36" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="G36" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H36" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I36" t="n">
-        <v>108</v>
+        <v>12</v>
       </c>
       <c r="J36" t="n">
-        <v>5.980066445182724</v>
+        <v>174</v>
+      </c>
+      <c r="K36" t="n">
+        <v>8.430232558139535</v>
       </c>
     </row>
   </sheetData>

--- a/processed_CI_test_data/pivots_long_CI_test.xlsx
+++ b/processed_CI_test_data/pivots_long_CI_test.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K36"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,8 +434,7 @@
     <col width="6" customWidth="1" min="7" max="7"/>
     <col width="28" customWidth="1" min="8" max="8"/>
     <col width="28" customWidth="1" min="9" max="9"/>
-    <col width="28" customWidth="1" min="10" max="10"/>
-    <col width="27" customWidth="1" min="11" max="11"/>
+    <col width="27" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -492,31 +491,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C4" t="n">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D4" t="n">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E4" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="F4" t="n">
         <v>81</v>
       </c>
       <c r="G4" t="n">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="H4" t="n">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="I4" t="n">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="J4" t="n">
-        <v>23.45205479452055</v>
+        <v>23.56164383561644</v>
       </c>
     </row>
     <row r="5">
@@ -526,31 +525,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C5" t="n">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D5" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E5" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F5" t="n">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="G5" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H5" t="n">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="I5" t="n">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="J5" t="n">
-        <v>16.38356164383562</v>
+        <v>16.05479452054795</v>
       </c>
     </row>
     <row r="6">
@@ -560,31 +559,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C6" t="n">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="D6" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E6" t="n">
+        <v>16</v>
+      </c>
+      <c r="F6" t="n">
+        <v>33</v>
+      </c>
+      <c r="G6" t="n">
+        <v>10</v>
+      </c>
+      <c r="H6" t="n">
         <v>28</v>
       </c>
-      <c r="F6" t="n">
-        <v>20</v>
-      </c>
-      <c r="G6" t="n">
-        <v>9</v>
-      </c>
-      <c r="H6" t="n">
-        <v>43</v>
-      </c>
       <c r="I6" t="n">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="J6" t="n">
-        <v>9.58904109589041</v>
+        <v>9.808219178082192</v>
       </c>
     </row>
     <row r="7">
@@ -594,31 +593,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C7" t="n">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D7" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="E7" t="n">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="F7" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G7" t="n">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H7" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="I7" t="n">
-        <v>509</v>
+        <v>473</v>
       </c>
       <c r="J7" t="n">
-        <v>27.89041095890411</v>
+        <v>25.91780821917808</v>
       </c>
     </row>
     <row r="8">
@@ -628,31 +627,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C8" t="n">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="D8" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E8" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="F8" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G8" t="n">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="H8" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="I8" t="n">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="J8" t="n">
-        <v>11.34246575342466</v>
+        <v>11.67123287671233</v>
       </c>
     </row>
     <row r="9">
@@ -662,31 +661,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C9" t="n">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="D9" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="E9" t="n">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="F9" t="n">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="G9" t="n">
         <v>24</v>
       </c>
       <c r="H9" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I9" t="n">
-        <v>207</v>
+        <v>237</v>
       </c>
       <c r="J9" t="n">
-        <v>11.34246575342466</v>
+        <v>12.98630136986301</v>
       </c>
     </row>
     <row r="10">
@@ -743,25 +742,25 @@
         <v>45</v>
       </c>
       <c r="C13" t="n">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D13" t="n">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E13" t="n">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="F13" t="n">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G13" t="n">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="H13" t="n">
-        <v>367</v>
+        <v>345</v>
       </c>
       <c r="I13" t="n">
-        <v>23.45047923322684</v>
+        <v>22.04472843450479</v>
       </c>
     </row>
     <row r="14">
@@ -774,25 +773,25 @@
         <v>19</v>
       </c>
       <c r="C14" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D14" t="n">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="E14" t="n">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F14" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G14" t="n">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H14" t="n">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="I14" t="n">
-        <v>16.86900958466454</v>
+        <v>17.38019169329073</v>
       </c>
     </row>
     <row r="15">
@@ -802,28 +801,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C15" t="n">
         <v>32</v>
       </c>
       <c r="D15" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E15" t="n">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F15" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G15" t="n">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="H15" t="n">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="I15" t="n">
-        <v>10.47923322683706</v>
+        <v>11.30990415335463</v>
       </c>
     </row>
     <row r="16">
@@ -833,28 +832,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C16" t="n">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="D16" t="n">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="E16" t="n">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F16" t="n">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="G16" t="n">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H16" t="n">
-        <v>450</v>
+        <v>420</v>
       </c>
       <c r="I16" t="n">
-        <v>28.75399361022365</v>
+        <v>26.8370607028754</v>
       </c>
     </row>
     <row r="17">
@@ -867,25 +866,25 @@
         <v>24</v>
       </c>
       <c r="C17" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D17" t="n">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="E17" t="n">
+        <v>18</v>
+      </c>
+      <c r="F17" t="n">
+        <v>27</v>
+      </c>
+      <c r="G17" t="n">
         <v>11</v>
       </c>
-      <c r="F17" t="n">
-        <v>24</v>
-      </c>
-      <c r="G17" t="n">
-        <v>8</v>
-      </c>
       <c r="H17" t="n">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="I17" t="n">
-        <v>8.881789137380192</v>
+        <v>9.904153354632587</v>
       </c>
     </row>
     <row r="18">
@@ -895,28 +894,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C18" t="n">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="D18" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E18" t="n">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F18" t="n">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="G18" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H18" t="n">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="I18" t="n">
-        <v>11.56549520766773</v>
+        <v>12.52396166134185</v>
       </c>
     </row>
     <row r="19">
@@ -970,28 +969,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C22" t="n">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="D22" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E22" t="n">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="F22" t="n">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="G22" t="n">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="H22" t="n">
-        <v>355</v>
+        <v>323</v>
       </c>
       <c r="I22" t="n">
-        <v>22.68370607028754</v>
+        <v>20.63897763578275</v>
       </c>
     </row>
     <row r="23">
@@ -1001,28 +1000,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C23" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D23" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E23" t="n">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F23" t="n">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="G23" t="n">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="H23" t="n">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="I23" t="n">
-        <v>17.25239616613418</v>
+        <v>17.31629392971246</v>
       </c>
     </row>
     <row r="24">
@@ -1032,28 +1031,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C24" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D24" t="n">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="E24" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="F24" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G24" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="H24" t="n">
-        <v>140</v>
+        <v>173</v>
       </c>
       <c r="I24" t="n">
-        <v>8.945686900958465</v>
+        <v>11.05431309904153</v>
       </c>
     </row>
     <row r="25">
@@ -1063,28 +1062,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C25" t="n">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="D25" t="n">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="E25" t="n">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="F25" t="n">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="G25" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="H25" t="n">
-        <v>402</v>
+        <v>374</v>
       </c>
       <c r="I25" t="n">
-        <v>25.68690095846645</v>
+        <v>23.89776357827476</v>
       </c>
     </row>
     <row r="26">
@@ -1094,22 +1093,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C26" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D26" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E26" t="n">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="F26" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="G26" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="H26" t="n">
         <v>189</v>
@@ -1128,25 +1127,25 @@
         <v>32</v>
       </c>
       <c r="C27" t="n">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="D27" t="n">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="E27" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F27" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G27" t="n">
         <v>8</v>
       </c>
       <c r="H27" t="n">
-        <v>209</v>
+        <v>235</v>
       </c>
       <c r="I27" t="n">
-        <v>13.35463258785942</v>
+        <v>15.01597444089457</v>
       </c>
     </row>
     <row r="28">
@@ -1158,35 +1157,29 @@
     </row>
     <row r="29">
       <c r="B29" t="n">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="C29" t="n">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="D29" t="n">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="E29" t="n">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="F29" t="n">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="G29" t="n">
-        <v>2020</v>
-      </c>
-      <c r="H29" t="n">
-        <v>2021</v>
-      </c>
-      <c r="I29" t="n">
         <v>2022</v>
       </c>
-      <c r="J29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>total_count_of_occurrences</t>
         </is>
       </c>
-      <c r="K29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>percentage_of_occurrences</t>
         </is>
@@ -1206,34 +1199,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="C31" t="n">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="D31" t="n">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="E31" t="n">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="F31" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="G31" t="n">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="H31" t="n">
-        <v>57</v>
+        <v>422</v>
       </c>
       <c r="I31" t="n">
-        <v>85</v>
-      </c>
-      <c r="J31" t="n">
-        <v>515</v>
-      </c>
-      <c r="K31" t="n">
-        <v>24.9515503875969</v>
+        <v>27.2609819121447</v>
       </c>
     </row>
     <row r="32">
@@ -1243,34 +1230,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="C32" t="n">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="D32" t="n">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="E32" t="n">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="F32" t="n">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="G32" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H32" t="n">
-        <v>36</v>
+        <v>227</v>
       </c>
       <c r="I32" t="n">
-        <v>54</v>
-      </c>
-      <c r="J32" t="n">
-        <v>333</v>
-      </c>
-      <c r="K32" t="n">
-        <v>16.13372093023256</v>
+        <v>14.6640826873385</v>
       </c>
     </row>
     <row r="33">
@@ -1280,34 +1261,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="C33" t="n">
+        <v>32</v>
+      </c>
+      <c r="D33" t="n">
         <v>31</v>
       </c>
-      <c r="D33" t="n">
-        <v>5</v>
-      </c>
       <c r="E33" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F33" t="n">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="G33" t="n">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="H33" t="n">
-        <v>13</v>
+        <v>127</v>
       </c>
       <c r="I33" t="n">
-        <v>9</v>
-      </c>
-      <c r="J33" t="n">
-        <v>187</v>
-      </c>
-      <c r="K33" t="n">
-        <v>9.060077519379844</v>
+        <v>8.204134366925064</v>
       </c>
     </row>
     <row r="34">
@@ -1317,34 +1292,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>61</v>
+        <v>106</v>
       </c>
       <c r="C34" t="n">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="D34" t="n">
-        <v>108</v>
+        <v>68</v>
       </c>
       <c r="E34" t="n">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F34" t="n">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="G34" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="H34" t="n">
-        <v>90</v>
+        <v>460</v>
       </c>
       <c r="I34" t="n">
-        <v>57</v>
-      </c>
-      <c r="J34" t="n">
-        <v>559</v>
-      </c>
-      <c r="K34" t="n">
-        <v>27.08333333333333</v>
+        <v>29.71576227390181</v>
       </c>
     </row>
     <row r="35">
@@ -1354,34 +1323,28 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>50</v>
+      </c>
+      <c r="C35" t="n">
+        <v>19</v>
+      </c>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="C35" t="n">
-        <v>38</v>
-      </c>
-      <c r="D35" t="n">
-        <v>47</v>
-      </c>
       <c r="E35" t="n">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="F35" t="n">
+        <v>48</v>
+      </c>
+      <c r="G35" t="n">
         <v>37</v>
       </c>
-      <c r="G35" t="n">
-        <v>19</v>
-      </c>
       <c r="H35" t="n">
-        <v>48</v>
+        <v>207</v>
       </c>
       <c r="I35" t="n">
-        <v>41</v>
-      </c>
-      <c r="J35" t="n">
-        <v>296</v>
-      </c>
-      <c r="K35" t="n">
-        <v>14.34108527131783</v>
+        <v>13.37209302325581</v>
       </c>
     </row>
     <row r="36">
@@ -1391,34 +1354,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="C36" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D36" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E36" t="n">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="F36" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G36" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H36" t="n">
-        <v>14</v>
+        <v>105</v>
       </c>
       <c r="I36" t="n">
-        <v>12</v>
-      </c>
-      <c r="J36" t="n">
-        <v>174</v>
-      </c>
-      <c r="K36" t="n">
-        <v>8.430232558139535</v>
+        <v>6.782945736434108</v>
       </c>
     </row>
   </sheetData>
